--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957275.3100000001</v>
+        <v>57837.43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57522.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47863.77</v>
+        <v>77781.42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78555.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77781.42</v>
+        <v>15542.69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15483.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15542.69</v>
+        <v>164483.53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>165348.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164483.53</v>
+        <v>5761.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5762.1</v>
       </c>
     </row>
     <row r="7">
@@ -499,165 +519,216 @@
       <c r="B7" t="n">
         <v>58884.12</v>
       </c>
+      <c r="C7" t="n">
+        <v>57383.74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71288.75</v>
+        <v>20154.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20281.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91092.12</v>
+        <v>22449.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22444.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8070.99</v>
+        <v>71288.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71634.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74774.69</v>
+        <v>91092.12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>91072.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20154.27</v>
+        <v>148.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>151.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22449.28</v>
+        <v>986.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1009.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20124.07</v>
+        <v>8070.99</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8200.209999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17622.22</v>
+        <v>74774.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74332.42999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11128.5</v>
+        <v>3633.33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3625.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57837.43</v>
+        <v>4340.97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4310.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>148.15</v>
+        <v>20124.07</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20052.71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3633.33</v>
+        <v>17622.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17731.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4340.97</v>
+        <v>11128.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11202.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5761.57</v>
+        <v>231170.54</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231878.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>986.67</v>
+        <v>47863.77</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47899.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231170.54</v>
+        <v>957275.3100000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>957984.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,225 +439,296 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957984.29</v>
+        <v>57522.86</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57731.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47899.21</v>
+        <v>78555.98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77809.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57522.86</v>
+        <v>15483.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15206.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78555.98</v>
+        <v>165348.66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>164426.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15483.59</v>
+        <v>5762.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5757.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165348.66</v>
+        <v>57383.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56743.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5762.1</v>
+        <v>20281.88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20277.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57383.74</v>
+        <v>22444.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22708.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20281.88</v>
+        <v>71634.56</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70690.85000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22444.09</v>
+        <v>91072.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>90675.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71634.56</v>
+        <v>151.45</v>
+      </c>
+      <c r="C12" t="n">
+        <v>154.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91072.45</v>
+        <v>1009.85</v>
+      </c>
+      <c r="C13" t="n">
+        <v>988.5599999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.45</v>
+        <v>8200.209999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7943.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1009.85</v>
+        <v>74332.42999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8200.209999999999</v>
+        <v>3625.45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3676.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74332.42999999999</v>
+        <v>4310.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4363.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3625.45</v>
+        <v>20052.71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19832.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4310.19</v>
+        <v>17731.57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17820.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20052.71</v>
+        <v>11202.22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11152.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17731.57</v>
+        <v>231878.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231829.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11202.22</v>
+        <v>47899.21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47692.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231878.3</v>
+        <v>957984.29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>953841.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -532,9 +532,7 @@
       <c r="B8" t="n">
         <v>20281.88</v>
       </c>
-      <c r="C8" t="n">
-        <v>20277.42</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +543,7 @@
       <c r="B9" t="n">
         <v>22444.09</v>
       </c>
-      <c r="C9" t="n">
-        <v>22708.68</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +554,7 @@
       <c r="B10" t="n">
         <v>71634.56</v>
       </c>
-      <c r="C10" t="n">
-        <v>70690.85000000001</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -662,9 +656,7 @@
       <c r="B18" t="n">
         <v>20052.71</v>
       </c>
-      <c r="C18" t="n">
-        <v>19832.28</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -715,7 +707,7 @@
         <v>47899.21</v>
       </c>
       <c r="C22" t="n">
-        <v>47692.08</v>
+        <v>51270.78</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +720,7 @@
         <v>957984.29</v>
       </c>
       <c r="C23" t="n">
-        <v>953841.7</v>
+        <v>820332.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,1026 +472,531 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57522.86</v>
+        <v>42432.1</v>
       </c>
       <c r="C2" t="n">
-        <v>57731.17</v>
+        <v>42636.81</v>
       </c>
       <c r="D2" t="n">
-        <v>42236.37</v>
+        <v>42334.68</v>
       </c>
       <c r="E2" t="n">
-        <v>42764</v>
+        <v>42721.91</v>
       </c>
       <c r="F2" t="n">
-        <v>42471.85</v>
+        <v>42371.37</v>
       </c>
       <c r="G2" t="n">
-        <v>42649.57</v>
-      </c>
-      <c r="H2" t="n">
-        <v>42596.47</v>
-      </c>
-      <c r="I2" t="n">
-        <v>42510.83</v>
-      </c>
-      <c r="J2" t="n">
-        <v>42795.79</v>
-      </c>
-      <c r="K2" t="n">
-        <v>42523.23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>42633.25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>42432.1</v>
+        <v>56418.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78555.98</v>
+        <v>15495.72</v>
       </c>
       <c r="C3" t="n">
-        <v>77809.84</v>
+        <v>15189.5</v>
       </c>
       <c r="D3" t="n">
-        <v>78025.36</v>
+        <v>15723.12</v>
       </c>
       <c r="E3" t="n">
-        <v>78542.48</v>
+        <v>15655.52</v>
       </c>
       <c r="F3" t="n">
-        <v>78599.72</v>
+        <v>15578.65</v>
       </c>
       <c r="G3" t="n">
-        <v>77644.02</v>
-      </c>
-      <c r="H3" t="n">
-        <v>77941.92</v>
-      </c>
-      <c r="I3" t="n">
-        <v>77853.49000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>78655.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>78527.81</v>
-      </c>
-      <c r="L3" t="n">
-        <v>78703.67999999999</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>15694.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15483.59</v>
+        <v>165237.67</v>
       </c>
       <c r="C4" t="n">
-        <v>15206.27</v>
+        <v>164746.63</v>
       </c>
       <c r="D4" t="n">
-        <v>15624.13</v>
+        <v>164519.9</v>
       </c>
       <c r="E4" t="n">
-        <v>15166.13</v>
+        <v>137095.54</v>
       </c>
       <c r="F4" t="n">
-        <v>15432.04</v>
+        <v>135904.94</v>
       </c>
       <c r="G4" t="n">
-        <v>15689.73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15654.47</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15358.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15177.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15763.19</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15352.23</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15495.72</v>
+        <v>136111.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165348.66</v>
+        <v>5761.72</v>
       </c>
       <c r="C5" t="n">
-        <v>164426.67</v>
+        <v>5763.15</v>
       </c>
       <c r="D5" t="n">
-        <v>165160.98</v>
+        <v>5753.75</v>
       </c>
       <c r="E5" t="n">
-        <v>164589.86</v>
+        <v>5766.97</v>
       </c>
       <c r="F5" t="n">
-        <v>165426.14</v>
+        <v>5765.05</v>
       </c>
       <c r="G5" t="n">
-        <v>165487.02</v>
-      </c>
-      <c r="H5" t="n">
-        <v>164530.82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>164901.56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>165397.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>164726.69</v>
-      </c>
-      <c r="L5" t="n">
-        <v>164764.06</v>
-      </c>
-      <c r="M5" t="n">
-        <v>165237.67</v>
+        <v>5766.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5762.1</v>
+        <v>32098.04</v>
       </c>
       <c r="C6" t="n">
-        <v>5757.28</v>
+        <v>7927</v>
       </c>
       <c r="D6" t="n">
-        <v>5761.01</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5764.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5765.51</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5761.04</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5765.38</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5758.79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5761.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5757.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5761.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5761.72</v>
-      </c>
+        <v>4123.64</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57383.74</v>
+        <v>176539.05</v>
       </c>
       <c r="C7" t="n">
-        <v>56743.94</v>
+        <v>176602.6</v>
       </c>
       <c r="D7" t="n">
-        <v>32445.98</v>
+        <v>182942.94</v>
       </c>
       <c r="E7" t="n">
-        <v>31841.82</v>
+        <v>197678.38</v>
       </c>
       <c r="F7" t="n">
-        <v>31931.82</v>
+        <v>197705.93</v>
       </c>
       <c r="G7" t="n">
-        <v>32153.18</v>
-      </c>
-      <c r="H7" t="n">
-        <v>31726</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32126.04</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32052.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>31821.33</v>
-      </c>
-      <c r="L7" t="n">
-        <v>31730.31</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32098.04</v>
+        <v>223589.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>302855.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>363377.51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>363487.48</v>
+      </c>
       <c r="E8" t="n">
-        <v>32393.18</v>
+        <v>364739.24</v>
       </c>
       <c r="F8" t="n">
-        <v>170462.96</v>
+        <v>364056.43</v>
       </c>
       <c r="G8" t="n">
-        <v>170516.24</v>
-      </c>
-      <c r="H8" t="n">
-        <v>176449.16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>176630.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>176491.61</v>
-      </c>
-      <c r="K8" t="n">
-        <v>176616.78</v>
-      </c>
-      <c r="L8" t="n">
-        <v>176657.56</v>
-      </c>
-      <c r="M8" t="n">
-        <v>176539.05</v>
+        <v>364336.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>207250.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>207416.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>206911.27</v>
+      </c>
       <c r="E9" t="n">
-        <v>24994.59</v>
+        <v>207393.99</v>
       </c>
       <c r="F9" t="n">
-        <v>24906.4</v>
+        <v>207585.2</v>
       </c>
       <c r="G9" t="n">
-        <v>23357.52</v>
-      </c>
-      <c r="H9" t="n">
-        <v>23788.93</v>
-      </c>
-      <c r="I9" t="n">
-        <v>60148.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>70287.49000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>134367.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>178044.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>302855.9</v>
+        <v>207486.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56122.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55674.74</v>
+      </c>
       <c r="D10" t="n">
-        <v>133575.31</v>
+        <v>56337.89</v>
       </c>
       <c r="E10" t="n">
-        <v>207286.39</v>
+        <v>55594.94</v>
       </c>
       <c r="F10" t="n">
-        <v>207428.41</v>
+        <v>56013.55</v>
       </c>
       <c r="G10" t="n">
-        <v>207671.92</v>
-      </c>
-      <c r="H10" t="n">
-        <v>207672.14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>207294.55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>207431.14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>207667.78</v>
-      </c>
-      <c r="L10" t="n">
-        <v>207819.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>207250.68</v>
+        <v>56561.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20281.88</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>52586.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52357.61</v>
+      </c>
       <c r="D11" t="n">
-        <v>19830.23</v>
+        <v>52581.23</v>
       </c>
       <c r="E11" t="n">
-        <v>20469.21</v>
+        <v>52314.38</v>
       </c>
       <c r="F11" t="n">
-        <v>20528.53</v>
+        <v>52755.26</v>
       </c>
       <c r="G11" t="n">
-        <v>20401.44</v>
-      </c>
-      <c r="H11" t="n">
-        <v>19892.37</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28607.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>39880.59</v>
-      </c>
-      <c r="K11" t="n">
-        <v>55809.54</v>
-      </c>
-      <c r="L11" t="n">
-        <v>56394.16</v>
-      </c>
-      <c r="M11" t="n">
-        <v>56122.31</v>
+        <v>51919.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22444.09</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>71540.17999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70444.64</v>
+      </c>
       <c r="D12" t="n">
-        <v>22261.34</v>
+        <v>71444.05</v>
       </c>
       <c r="E12" t="n">
-        <v>22172.07</v>
+        <v>70758.98</v>
       </c>
       <c r="F12" t="n">
-        <v>22433.96</v>
+        <v>70649.59</v>
       </c>
       <c r="G12" t="n">
-        <v>22485.99</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22686.52</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29685.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40007.31</v>
-      </c>
-      <c r="K12" t="n">
-        <v>51927.73</v>
-      </c>
-      <c r="L12" t="n">
-        <v>52493.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>52586.05</v>
+        <v>72303.57000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71634.56</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>91328.47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>86760.22</v>
+      </c>
       <c r="D13" t="n">
-        <v>71558.24000000001</v>
+        <v>86540.53999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>70442.3</v>
+        <v>86864.94</v>
       </c>
       <c r="F13" t="n">
-        <v>71064.99000000001</v>
+        <v>86829.94</v>
       </c>
       <c r="G13" t="n">
-        <v>71133.89999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>70709.33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>70654.58</v>
-      </c>
-      <c r="J13" t="n">
-        <v>71511.89999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>70255.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>70589.12</v>
-      </c>
-      <c r="M13" t="n">
-        <v>71540.17999999999</v>
+        <v>84549.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91072.45</v>
+        <v>133.63</v>
       </c>
       <c r="C14" t="n">
-        <v>90675.48</v>
+        <v>143.55</v>
       </c>
       <c r="D14" t="n">
-        <v>91272.37</v>
+        <v>148.87</v>
       </c>
       <c r="E14" t="n">
-        <v>90535.71000000001</v>
+        <v>159.37</v>
       </c>
       <c r="F14" t="n">
-        <v>91468.96000000001</v>
+        <v>169.49</v>
       </c>
       <c r="G14" t="n">
-        <v>90658.50999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>90732.69</v>
-      </c>
-      <c r="I14" t="n">
-        <v>90688.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>91326.47</v>
-      </c>
-      <c r="K14" t="n">
-        <v>91301.89</v>
-      </c>
-      <c r="L14" t="n">
-        <v>90688.66</v>
-      </c>
-      <c r="M14" t="n">
-        <v>91328.47</v>
+        <v>170.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.45</v>
+        <v>1004.57</v>
       </c>
       <c r="C15" t="n">
-        <v>154.56</v>
+        <v>993.89</v>
       </c>
       <c r="D15" t="n">
-        <v>151.52</v>
+        <v>998.58</v>
       </c>
       <c r="E15" t="n">
-        <v>145.68</v>
+        <v>1020.58</v>
       </c>
       <c r="F15" t="n">
-        <v>135.52</v>
+        <v>994.71</v>
       </c>
       <c r="G15" t="n">
-        <v>195.39</v>
-      </c>
-      <c r="H15" t="n">
-        <v>157.91</v>
-      </c>
-      <c r="I15" t="n">
-        <v>157.74</v>
-      </c>
-      <c r="J15" t="n">
-        <v>157.61</v>
-      </c>
-      <c r="K15" t="n">
-        <v>148.38</v>
-      </c>
-      <c r="L15" t="n">
-        <v>132.65</v>
-      </c>
-      <c r="M15" t="n">
-        <v>133.63</v>
+        <v>992.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.85</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>988.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1015.86</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1006.91</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>982.76</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1008.35</v>
-      </c>
-      <c r="H16" t="n">
-        <v>987.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>985.87</v>
-      </c>
-      <c r="J16" t="n">
-        <v>989.4299999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>993.3200000000001</v>
-      </c>
-      <c r="L16" t="n">
-        <v>995.04</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1004.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8200.209999999999</v>
+        <v>57606.75</v>
       </c>
       <c r="C17" t="n">
-        <v>7943.86</v>
+        <v>57623.46</v>
       </c>
       <c r="D17" t="n">
-        <v>8279.4</v>
+        <v>57634.73</v>
       </c>
       <c r="E17" t="n">
-        <v>8194.01</v>
+        <v>57793.61</v>
       </c>
       <c r="F17" t="n">
-        <v>8018.89</v>
+        <v>58381.62</v>
       </c>
       <c r="G17" t="n">
-        <v>8011.96</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8152</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2885.84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3298.26</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3039.35</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
+        <v>57704.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74332.42999999999</v>
+        <v>9252.889999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>74052</v>
+        <v>9285.780000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>69718.81</v>
+        <v>9144.549999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>69204.60000000001</v>
+        <v>9269.629999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>69538.27</v>
+        <v>9234.540000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>64631.61</v>
-      </c>
-      <c r="H18" t="n">
-        <v>64078.38</v>
-      </c>
-      <c r="I18" t="n">
-        <v>64440.86</v>
-      </c>
-      <c r="J18" t="n">
-        <v>64722.97</v>
-      </c>
-      <c r="K18" t="n">
-        <v>64598.77</v>
-      </c>
-      <c r="L18" t="n">
-        <v>58086.98</v>
-      </c>
-      <c r="M18" t="n">
-        <v>57606.75</v>
+        <v>9311.93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3625.45</v>
+        <v>19958.99</v>
       </c>
       <c r="C19" t="n">
-        <v>3676.3</v>
+        <v>19914.61</v>
       </c>
       <c r="D19" t="n">
-        <v>3599.83</v>
+        <v>19866.84</v>
       </c>
       <c r="E19" t="n">
-        <v>3663.75</v>
+        <v>19842.73</v>
       </c>
       <c r="F19" t="n">
-        <v>1932.06</v>
+        <v>19783.77</v>
       </c>
       <c r="G19" t="n">
-        <v>1911.25</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1940.48</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1948.99</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1899.86</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1999.91</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1985.89</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>19898.63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4310.19</v>
+        <v>17166.13</v>
       </c>
       <c r="C20" t="n">
-        <v>4363.18</v>
+        <v>17190.67</v>
       </c>
       <c r="D20" t="n">
-        <v>4345.96</v>
+        <v>17812.57</v>
       </c>
       <c r="E20" t="n">
-        <v>9142.040000000001</v>
+        <v>17803.99</v>
       </c>
       <c r="F20" t="n">
-        <v>9213.1</v>
+        <v>17169.53</v>
       </c>
       <c r="G20" t="n">
-        <v>9263.23</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9182.790000000001</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9236.129999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9270.280000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9241.889999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9228.23</v>
-      </c>
-      <c r="M20" t="n">
-        <v>9252.889999999999</v>
+        <v>17012.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20052.71</v>
+        <v>11067.17</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>19966.14</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19915.41</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19998.51</v>
-      </c>
-      <c r="G21" t="n">
-        <v>19902.77</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19886.85</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20059.13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20069.41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19907.11</v>
-      </c>
-      <c r="L21" t="n">
-        <v>20121.63</v>
-      </c>
-      <c r="M21" t="n">
-        <v>19958.99</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17731.57</v>
+        <v>66771.89999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>17820.95</v>
+        <v>71265.75</v>
       </c>
       <c r="D22" t="n">
-        <v>17620</v>
+        <v>71489.82000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>17106.48</v>
+        <v>74581.92999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>17747.81</v>
+        <v>74497.2</v>
       </c>
       <c r="G22" t="n">
-        <v>17374.52</v>
-      </c>
-      <c r="H22" t="n">
-        <v>17574.62</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17546.61</v>
-      </c>
-      <c r="J22" t="n">
-        <v>17772.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>17108.17</v>
-      </c>
-      <c r="L22" t="n">
-        <v>17471.35</v>
-      </c>
-      <c r="M22" t="n">
-        <v>17166.13</v>
+        <v>76657.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11202.22</v>
+        <v>1335438.02</v>
       </c>
       <c r="C23" t="n">
-        <v>11152.86</v>
+        <v>1354049.25</v>
       </c>
       <c r="D23" t="n">
-        <v>11127.17</v>
+        <v>1358306.63</v>
       </c>
       <c r="E23" t="n">
-        <v>11257.13</v>
+        <v>1342474.7</v>
       </c>
       <c r="F23" t="n">
-        <v>11208.06</v>
+        <v>1340949.57</v>
       </c>
       <c r="G23" t="n">
-        <v>11200</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11108.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11185.75</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11336.66</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11159.48</v>
-      </c>
-      <c r="L23" t="n">
-        <v>11249.8</v>
-      </c>
-      <c r="M23" t="n">
-        <v>11067.17</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Supefondo RV</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>231878.3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>231829.55</v>
-      </c>
-      <c r="D24" t="n">
-        <v>232207.78</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>47899.21</v>
-      </c>
-      <c r="C25" t="n">
-        <v>51270.78</v>
-      </c>
-      <c r="D25" t="n">
-        <v>49799.23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43027.18</v>
-      </c>
-      <c r="F25" t="n">
-        <v>49395.29</v>
-      </c>
-      <c r="G25" t="n">
-        <v>49050.42</v>
-      </c>
-      <c r="H25" t="n">
-        <v>49237.03</v>
-      </c>
-      <c r="I25" t="n">
-        <v>51393.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>53013.37</v>
-      </c>
-      <c r="K25" t="n">
-        <v>57057.41</v>
-      </c>
-      <c r="L25" t="n">
-        <v>58677.42</v>
-      </c>
-      <c r="M25" t="n">
-        <v>66771.89999999999</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>957984.29</v>
-      </c>
-      <c r="C26" t="n">
-        <v>820332.47</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1045783.79</v>
-      </c>
-      <c r="E26" t="n">
-        <v>946597.95</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1086696.27</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1079109.16</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1083214.73</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1130665.73</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1166294.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1255263</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1290903.21</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1335438.02</v>
+        <v>1379828.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,531 +502,1026 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>57522.86</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57731.17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42236.37</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42764</v>
+      </c>
+      <c r="F2" t="n">
+        <v>42471.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42649.57</v>
+      </c>
+      <c r="H2" t="n">
+        <v>42596.47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>42510.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>42795.79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>42523.23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>42633.25</v>
+      </c>
+      <c r="M2" t="n">
         <v>42432.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>42636.81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42334.68</v>
-      </c>
-      <c r="E2" t="n">
-        <v>42721.91</v>
-      </c>
-      <c r="F2" t="n">
-        <v>42371.37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>56418.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15495.72</v>
+        <v>78555.98</v>
       </c>
       <c r="C3" t="n">
-        <v>15189.5</v>
+        <v>77809.84</v>
       </c>
       <c r="D3" t="n">
-        <v>15723.12</v>
+        <v>78025.36</v>
       </c>
       <c r="E3" t="n">
-        <v>15655.52</v>
+        <v>78542.48</v>
       </c>
       <c r="F3" t="n">
-        <v>15578.65</v>
+        <v>78599.72</v>
       </c>
       <c r="G3" t="n">
-        <v>15694.37</v>
-      </c>
+        <v>77644.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>77941.92</v>
+      </c>
+      <c r="I3" t="n">
+        <v>77853.49000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>78655.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78527.81</v>
+      </c>
+      <c r="L3" t="n">
+        <v>78703.67999999999</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165237.67</v>
+        <v>15483.59</v>
       </c>
       <c r="C4" t="n">
-        <v>164746.63</v>
+        <v>15206.27</v>
       </c>
       <c r="D4" t="n">
-        <v>164519.9</v>
+        <v>15624.13</v>
       </c>
       <c r="E4" t="n">
-        <v>137095.54</v>
+        <v>15166.13</v>
       </c>
       <c r="F4" t="n">
-        <v>135904.94</v>
+        <v>15432.04</v>
       </c>
       <c r="G4" t="n">
-        <v>136111.35</v>
+        <v>15689.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15654.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15358.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15177.98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15763.19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15352.23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15495.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5761.72</v>
+        <v>165348.66</v>
       </c>
       <c r="C5" t="n">
-        <v>5763.15</v>
+        <v>164426.67</v>
       </c>
       <c r="D5" t="n">
-        <v>5753.75</v>
+        <v>165160.98</v>
       </c>
       <c r="E5" t="n">
-        <v>5766.97</v>
+        <v>164589.86</v>
       </c>
       <c r="F5" t="n">
-        <v>5765.05</v>
+        <v>165426.14</v>
       </c>
       <c r="G5" t="n">
-        <v>5766.6</v>
+        <v>165487.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>164530.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>164901.56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>165397.31</v>
+      </c>
+      <c r="K5" t="n">
+        <v>164726.69</v>
+      </c>
+      <c r="L5" t="n">
+        <v>164764.06</v>
+      </c>
+      <c r="M5" t="n">
+        <v>165237.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32098.04</v>
+        <v>5762.1</v>
       </c>
       <c r="C6" t="n">
-        <v>7927</v>
+        <v>5757.28</v>
       </c>
       <c r="D6" t="n">
-        <v>4123.64</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>5761.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5764.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5765.51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5761.04</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5765.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5758.79</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5761.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5757.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5761.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5761.72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176539.05</v>
+        <v>57383.74</v>
       </c>
       <c r="C7" t="n">
-        <v>176602.6</v>
+        <v>56743.94</v>
       </c>
       <c r="D7" t="n">
-        <v>182942.94</v>
+        <v>32445.98</v>
       </c>
       <c r="E7" t="n">
-        <v>197678.38</v>
+        <v>31841.82</v>
       </c>
       <c r="F7" t="n">
-        <v>197705.93</v>
+        <v>31931.82</v>
       </c>
       <c r="G7" t="n">
-        <v>223589.45</v>
+        <v>32153.18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31726</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32126.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32052.63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31821.33</v>
+      </c>
+      <c r="L7" t="n">
+        <v>31730.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32098.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>302855.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>363377.51</v>
-      </c>
-      <c r="D8" t="n">
-        <v>363487.48</v>
-      </c>
+          <t>Bull Market</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>364739.24</v>
+        <v>32393.18</v>
       </c>
       <c r="F8" t="n">
-        <v>364056.43</v>
+        <v>170462.96</v>
       </c>
       <c r="G8" t="n">
-        <v>364336.29</v>
+        <v>170516.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>176449.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>176630.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>176491.61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>176616.78</v>
+      </c>
+      <c r="L8" t="n">
+        <v>176657.56</v>
+      </c>
+      <c r="M8" t="n">
+        <v>176539.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>207250.68</v>
-      </c>
-      <c r="C9" t="n">
-        <v>207416.88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>206911.27</v>
-      </c>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>207393.99</v>
+        <v>24994.59</v>
       </c>
       <c r="F9" t="n">
-        <v>207585.2</v>
+        <v>24906.4</v>
       </c>
       <c r="G9" t="n">
-        <v>207486.81</v>
+        <v>23357.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23788.93</v>
+      </c>
+      <c r="I9" t="n">
+        <v>60148.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>70287.49000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>134367.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>178044.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>302855.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>56122.31</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55674.74</v>
-      </c>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>56337.89</v>
+        <v>133575.31</v>
       </c>
       <c r="E10" t="n">
-        <v>55594.94</v>
+        <v>207286.39</v>
       </c>
       <c r="F10" t="n">
-        <v>56013.55</v>
+        <v>207428.41</v>
       </c>
       <c r="G10" t="n">
-        <v>56561.3</v>
+        <v>207671.92</v>
+      </c>
+      <c r="H10" t="n">
+        <v>207672.14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>207294.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>207431.14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>207667.78</v>
+      </c>
+      <c r="L10" t="n">
+        <v>207819.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>207250.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52586.05</v>
-      </c>
-      <c r="C11" t="n">
-        <v>52357.61</v>
-      </c>
+        <v>20281.88</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>52581.23</v>
+        <v>19830.23</v>
       </c>
       <c r="E11" t="n">
-        <v>52314.38</v>
+        <v>20469.21</v>
       </c>
       <c r="F11" t="n">
-        <v>52755.26</v>
+        <v>20528.53</v>
       </c>
       <c r="G11" t="n">
-        <v>51919.81</v>
+        <v>20401.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19892.37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28607.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39880.59</v>
+      </c>
+      <c r="K11" t="n">
+        <v>55809.54</v>
+      </c>
+      <c r="L11" t="n">
+        <v>56394.16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>56122.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71540.17999999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>70444.64</v>
-      </c>
+        <v>22444.09</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>71444.05</v>
+        <v>22261.34</v>
       </c>
       <c r="E12" t="n">
-        <v>70758.98</v>
+        <v>22172.07</v>
       </c>
       <c r="F12" t="n">
-        <v>70649.59</v>
+        <v>22433.96</v>
       </c>
       <c r="G12" t="n">
-        <v>72303.57000000001</v>
+        <v>22485.99</v>
+      </c>
+      <c r="H12" t="n">
+        <v>22686.52</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29685.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40007.31</v>
+      </c>
+      <c r="K12" t="n">
+        <v>51927.73</v>
+      </c>
+      <c r="L12" t="n">
+        <v>52493.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>52586.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91328.47</v>
-      </c>
-      <c r="C13" t="n">
-        <v>86760.22</v>
-      </c>
+        <v>71634.56</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>86540.53999999999</v>
+        <v>71558.24000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>86864.94</v>
+        <v>70442.3</v>
       </c>
       <c r="F13" t="n">
-        <v>86829.94</v>
+        <v>71064.99000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>84549.25</v>
+        <v>71133.89999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>70709.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70654.58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>71511.89999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>70255.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>70589.12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>71540.17999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.63</v>
+        <v>91072.45</v>
       </c>
       <c r="C14" t="n">
-        <v>143.55</v>
+        <v>90675.48</v>
       </c>
       <c r="D14" t="n">
-        <v>148.87</v>
+        <v>91272.37</v>
       </c>
       <c r="E14" t="n">
-        <v>159.37</v>
+        <v>90535.71000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>169.49</v>
+        <v>91468.96000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>170.28</v>
+        <v>90658.50999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>90732.69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90688.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>91326.47</v>
+      </c>
+      <c r="K14" t="n">
+        <v>91301.89</v>
+      </c>
+      <c r="L14" t="n">
+        <v>90688.66</v>
+      </c>
+      <c r="M14" t="n">
+        <v>91328.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1004.57</v>
+        <v>151.45</v>
       </c>
       <c r="C15" t="n">
-        <v>993.89</v>
+        <v>154.56</v>
       </c>
       <c r="D15" t="n">
-        <v>998.58</v>
+        <v>151.52</v>
       </c>
       <c r="E15" t="n">
-        <v>1020.58</v>
+        <v>145.68</v>
       </c>
       <c r="F15" t="n">
-        <v>994.71</v>
+        <v>135.52</v>
       </c>
       <c r="G15" t="n">
-        <v>992.64</v>
+        <v>195.39</v>
+      </c>
+      <c r="H15" t="n">
+        <v>157.91</v>
+      </c>
+      <c r="I15" t="n">
+        <v>157.74</v>
+      </c>
+      <c r="J15" t="n">
+        <v>157.61</v>
+      </c>
+      <c r="K15" t="n">
+        <v>148.38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>132.65</v>
+      </c>
+      <c r="M15" t="n">
+        <v>133.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1009.85</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>988.5599999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1015.86</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1006.91</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>982.76</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1008.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>987.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>985.87</v>
+      </c>
+      <c r="J16" t="n">
+        <v>989.4299999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>993.3200000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>995.04</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1004.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57606.75</v>
+        <v>8200.209999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>57623.46</v>
+        <v>7943.86</v>
       </c>
       <c r="D17" t="n">
-        <v>57634.73</v>
+        <v>8279.4</v>
       </c>
       <c r="E17" t="n">
-        <v>57793.61</v>
+        <v>8194.01</v>
       </c>
       <c r="F17" t="n">
-        <v>58381.62</v>
+        <v>8018.89</v>
       </c>
       <c r="G17" t="n">
-        <v>57704.77</v>
+        <v>8011.96</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8152</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2885.84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3298.26</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3039.35</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9252.889999999999</v>
+        <v>74332.42999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>9285.780000000001</v>
+        <v>74052</v>
       </c>
       <c r="D18" t="n">
-        <v>9144.549999999999</v>
+        <v>69718.81</v>
       </c>
       <c r="E18" t="n">
-        <v>9269.629999999999</v>
+        <v>69204.60000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>9234.540000000001</v>
+        <v>69538.27</v>
       </c>
       <c r="G18" t="n">
-        <v>9311.93</v>
+        <v>64631.61</v>
+      </c>
+      <c r="H18" t="n">
+        <v>64078.38</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64440.86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>64722.97</v>
+      </c>
+      <c r="K18" t="n">
+        <v>64598.77</v>
+      </c>
+      <c r="L18" t="n">
+        <v>58086.98</v>
+      </c>
+      <c r="M18" t="n">
+        <v>57606.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19958.99</v>
+        <v>3625.45</v>
       </c>
       <c r="C19" t="n">
-        <v>19914.61</v>
+        <v>3676.3</v>
       </c>
       <c r="D19" t="n">
-        <v>19866.84</v>
+        <v>3599.83</v>
       </c>
       <c r="E19" t="n">
-        <v>19842.73</v>
+        <v>3663.75</v>
       </c>
       <c r="F19" t="n">
-        <v>19783.77</v>
+        <v>1932.06</v>
       </c>
       <c r="G19" t="n">
-        <v>19898.63</v>
-      </c>
+        <v>1911.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1940.48</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1948.99</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1899.86</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1999.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1985.89</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17166.13</v>
+        <v>4310.19</v>
       </c>
       <c r="C20" t="n">
-        <v>17190.67</v>
+        <v>4363.18</v>
       </c>
       <c r="D20" t="n">
-        <v>17812.57</v>
+        <v>4345.96</v>
       </c>
       <c r="E20" t="n">
-        <v>17803.99</v>
+        <v>9142.040000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>17169.53</v>
+        <v>9213.1</v>
       </c>
       <c r="G20" t="n">
-        <v>17012.25</v>
+        <v>9263.23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9182.790000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9236.129999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9270.280000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9241.889999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9228.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9252.889999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11067.17</v>
+        <v>20052.71</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>19966.14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19915.41</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19998.51</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19902.77</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19886.85</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20059.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20069.41</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19907.11</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20121.63</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19958.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66771.89999999999</v>
+        <v>17731.57</v>
       </c>
       <c r="C22" t="n">
-        <v>71265.75</v>
+        <v>17820.95</v>
       </c>
       <c r="D22" t="n">
-        <v>71489.82000000001</v>
+        <v>17620</v>
       </c>
       <c r="E22" t="n">
-        <v>74581.92999999999</v>
+        <v>17106.48</v>
       </c>
       <c r="F22" t="n">
-        <v>74497.2</v>
+        <v>17747.81</v>
       </c>
       <c r="G22" t="n">
-        <v>76657.12</v>
+        <v>17374.52</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17574.62</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17546.61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17772.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17108.17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>17471.35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>17166.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11202.22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11152.86</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11127.17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11257.13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11208.06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11200</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11108.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11185.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11336.66</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11159.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11249.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11067.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>231878.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>231829.55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>232207.78</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>47899.21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51270.78</v>
+      </c>
+      <c r="D25" t="n">
+        <v>49799.23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>43027.18</v>
+      </c>
+      <c r="F25" t="n">
+        <v>49395.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>49050.42</v>
+      </c>
+      <c r="H25" t="n">
+        <v>49237.03</v>
+      </c>
+      <c r="I25" t="n">
+        <v>51393.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>53013.37</v>
+      </c>
+      <c r="K25" t="n">
+        <v>57057.41</v>
+      </c>
+      <c r="L25" t="n">
+        <v>58677.42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>66771.89999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
+        <v>957984.29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>820332.47</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1045783.79</v>
+      </c>
+      <c r="E26" t="n">
+        <v>946597.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1086696.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1079109.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1083214.73</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1130665.73</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1166294.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1255263</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1290903.21</v>
+      </c>
+      <c r="M26" t="n">
         <v>1335438.02</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1354049.25</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1358306.63</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1342474.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1340949.57</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1379828.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,1026 +572,1757 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57522.86</v>
+        <v>42432.1</v>
       </c>
       <c r="C2" t="n">
-        <v>57731.17</v>
+        <v>42636.81</v>
       </c>
       <c r="D2" t="n">
-        <v>42236.37</v>
+        <v>42334.68</v>
       </c>
       <c r="E2" t="n">
-        <v>42764</v>
+        <v>42721.91</v>
       </c>
       <c r="F2" t="n">
-        <v>42471.85</v>
+        <v>42371.37</v>
       </c>
       <c r="G2" t="n">
-        <v>42649.57</v>
+        <v>56418.81</v>
       </c>
       <c r="H2" t="n">
-        <v>42596.47</v>
+        <v>56419.34</v>
       </c>
       <c r="I2" t="n">
-        <v>42510.83</v>
+        <v>56214.28</v>
       </c>
       <c r="J2" t="n">
-        <v>42795.79</v>
+        <v>62554.63</v>
       </c>
       <c r="K2" t="n">
-        <v>42523.23</v>
+        <v>73609.13</v>
       </c>
       <c r="L2" t="n">
-        <v>42633.25</v>
+        <v>73941.37</v>
       </c>
       <c r="M2" t="n">
-        <v>42432.1</v>
+        <v>73332.36</v>
+      </c>
+      <c r="N2" t="n">
+        <v>73489.63</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83644.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>104785.68</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>115169.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>114517.37</v>
+      </c>
+      <c r="S2" t="n">
+        <v>115107.01</v>
+      </c>
+      <c r="T2" t="n">
+        <v>98610.23</v>
+      </c>
+      <c r="U2" t="n">
+        <v>97759.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>98177.94</v>
+      </c>
+      <c r="W2" t="n">
+        <v>98021.66</v>
+      </c>
+      <c r="X2" t="n">
+        <v>98155.67999999999</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>72271.94</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>72788.28999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>63521.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78555.98</v>
+        <v>15495.72</v>
       </c>
       <c r="C3" t="n">
-        <v>77809.84</v>
+        <v>15189.5</v>
       </c>
       <c r="D3" t="n">
-        <v>78025.36</v>
+        <v>15723.12</v>
       </c>
       <c r="E3" t="n">
-        <v>78542.48</v>
+        <v>15655.52</v>
       </c>
       <c r="F3" t="n">
-        <v>78599.72</v>
+        <v>15578.65</v>
       </c>
       <c r="G3" t="n">
-        <v>77644.02</v>
+        <v>15694.37</v>
       </c>
       <c r="H3" t="n">
-        <v>77941.92</v>
+        <v>15658.92</v>
       </c>
       <c r="I3" t="n">
-        <v>77853.49000000001</v>
+        <v>15249.98</v>
       </c>
       <c r="J3" t="n">
-        <v>78655.5</v>
+        <v>15665.1</v>
       </c>
       <c r="K3" t="n">
-        <v>78527.81</v>
+        <v>15373.63</v>
       </c>
       <c r="L3" t="n">
-        <v>78703.67999999999</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>15344.55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15599.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15514.81</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15404.81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15552.08</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15761.16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15468.49</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15860.31</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15385.95</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15859.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15955.09</v>
+      </c>
+      <c r="W3" t="n">
+        <v>15631.38</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15135.76</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15325.77</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15744.44</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15571.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15483.59</v>
+        <v>165237.67</v>
       </c>
       <c r="C4" t="n">
-        <v>15206.27</v>
+        <v>164746.63</v>
       </c>
       <c r="D4" t="n">
-        <v>15624.13</v>
+        <v>164519.9</v>
       </c>
       <c r="E4" t="n">
-        <v>15166.13</v>
+        <v>137095.54</v>
       </c>
       <c r="F4" t="n">
-        <v>15432.04</v>
+        <v>135904.94</v>
       </c>
       <c r="G4" t="n">
-        <v>15689.73</v>
+        <v>136111.35</v>
       </c>
       <c r="H4" t="n">
-        <v>15654.47</v>
+        <v>136566.7</v>
       </c>
       <c r="I4" t="n">
-        <v>15358.39</v>
+        <v>136835.04</v>
       </c>
       <c r="J4" t="n">
-        <v>15177.98</v>
+        <v>136586.37</v>
       </c>
       <c r="K4" t="n">
-        <v>15763.19</v>
+        <v>136347.65</v>
       </c>
       <c r="L4" t="n">
-        <v>15352.23</v>
+        <v>136261.32</v>
       </c>
       <c r="M4" t="n">
-        <v>15495.72</v>
+        <v>136511.74</v>
+      </c>
+      <c r="N4" t="n">
+        <v>136527.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>136833.76</v>
+      </c>
+      <c r="P4" t="n">
+        <v>136366.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>137142.48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>136757.51</v>
+      </c>
+      <c r="S4" t="n">
+        <v>135988.06</v>
+      </c>
+      <c r="T4" t="n">
+        <v>137173.68</v>
+      </c>
+      <c r="U4" t="n">
+        <v>137169.07</v>
+      </c>
+      <c r="V4" t="n">
+        <v>136836.9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>135983.21</v>
+      </c>
+      <c r="X4" t="n">
+        <v>136727.95</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>136085.98</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>136966.26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>136929.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165348.66</v>
+        <v>5761.72</v>
       </c>
       <c r="C5" t="n">
-        <v>164426.67</v>
+        <v>5763.15</v>
       </c>
       <c r="D5" t="n">
-        <v>165160.98</v>
+        <v>5753.75</v>
       </c>
       <c r="E5" t="n">
-        <v>164589.86</v>
+        <v>5766.97</v>
       </c>
       <c r="F5" t="n">
-        <v>165426.14</v>
+        <v>5765.05</v>
       </c>
       <c r="G5" t="n">
-        <v>165487.02</v>
+        <v>5766.6</v>
       </c>
       <c r="H5" t="n">
-        <v>164530.82</v>
+        <v>5764.82</v>
       </c>
       <c r="I5" t="n">
-        <v>164901.56</v>
+        <v>5761.51</v>
       </c>
       <c r="J5" t="n">
-        <v>165397.31</v>
+        <v>5765.64</v>
       </c>
       <c r="K5" t="n">
-        <v>164726.69</v>
+        <v>5763.69</v>
       </c>
       <c r="L5" t="n">
-        <v>164764.06</v>
+        <v>5760.13</v>
       </c>
       <c r="M5" t="n">
-        <v>165237.67</v>
+        <v>5758.26</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5761.88</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5758.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5767.12</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5765.97</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5757.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5761.99</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5768.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5767.47</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5760.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5762.45</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5761.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5764.79</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5759.49</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5764.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5762.1</v>
+        <v>32098.04</v>
       </c>
       <c r="C6" t="n">
-        <v>5757.28</v>
+        <v>7927</v>
       </c>
       <c r="D6" t="n">
-        <v>5761.01</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5764.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5765.51</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5761.04</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5765.38</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5758.79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5761.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5757.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5761.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5761.72</v>
-      </c>
+        <v>4123.64</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57383.74</v>
+        <v>176539.05</v>
       </c>
       <c r="C7" t="n">
-        <v>56743.94</v>
+        <v>176602.6</v>
       </c>
       <c r="D7" t="n">
-        <v>32445.98</v>
+        <v>182942.94</v>
       </c>
       <c r="E7" t="n">
-        <v>31841.82</v>
+        <v>197678.38</v>
       </c>
       <c r="F7" t="n">
-        <v>31931.82</v>
+        <v>197705.93</v>
       </c>
       <c r="G7" t="n">
-        <v>32153.18</v>
+        <v>223589.45</v>
       </c>
       <c r="H7" t="n">
-        <v>31726</v>
+        <v>223391.47</v>
       </c>
       <c r="I7" t="n">
-        <v>32126.04</v>
+        <v>223422.9</v>
       </c>
       <c r="J7" t="n">
-        <v>32052.63</v>
+        <v>227356.71</v>
       </c>
       <c r="K7" t="n">
-        <v>31821.33</v>
+        <v>227198.53</v>
       </c>
       <c r="L7" t="n">
-        <v>31730.31</v>
+        <v>227358.05</v>
       </c>
       <c r="M7" t="n">
-        <v>32098.04</v>
+        <v>231263.54</v>
+      </c>
+      <c r="N7" t="n">
+        <v>231357.34</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240949.74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>250427.05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>276014.48</v>
+      </c>
+      <c r="R7" t="n">
+        <v>285505.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>292872.46</v>
+      </c>
+      <c r="T7" t="n">
+        <v>290891.68</v>
+      </c>
+      <c r="U7" t="n">
+        <v>280141.66</v>
+      </c>
+      <c r="V7" t="n">
+        <v>308048</v>
+      </c>
+      <c r="W7" t="n">
+        <v>341883.87</v>
+      </c>
+      <c r="X7" t="n">
+        <v>351023.79</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>347282.26</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>341934.17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>342212.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>302855.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>363377.51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>363487.48</v>
+      </c>
       <c r="E8" t="n">
-        <v>32393.18</v>
+        <v>364739.24</v>
       </c>
       <c r="F8" t="n">
-        <v>170462.96</v>
+        <v>364056.43</v>
       </c>
       <c r="G8" t="n">
-        <v>170516.24</v>
+        <v>364336.29</v>
       </c>
       <c r="H8" t="n">
-        <v>176449.16</v>
+        <v>365101.33</v>
       </c>
       <c r="I8" t="n">
-        <v>176630.75</v>
+        <v>365134.59</v>
       </c>
       <c r="J8" t="n">
-        <v>176491.61</v>
+        <v>363881.08</v>
       </c>
       <c r="K8" t="n">
-        <v>176616.78</v>
+        <v>363878.27</v>
       </c>
       <c r="L8" t="n">
-        <v>176657.56</v>
+        <v>364426.89</v>
       </c>
       <c r="M8" t="n">
-        <v>176539.05</v>
+        <v>363580.56</v>
+      </c>
+      <c r="N8" t="n">
+        <v>364494.35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>363900.96</v>
+      </c>
+      <c r="P8" t="n">
+        <v>364175.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>364360.99</v>
+      </c>
+      <c r="R8" t="n">
+        <v>363829.69</v>
+      </c>
+      <c r="S8" t="n">
+        <v>364700.68</v>
+      </c>
+      <c r="T8" t="n">
+        <v>364180.49</v>
+      </c>
+      <c r="U8" t="n">
+        <v>363780.24</v>
+      </c>
+      <c r="V8" t="n">
+        <v>364961.87</v>
+      </c>
+      <c r="W8" t="n">
+        <v>364124.66</v>
+      </c>
+      <c r="X8" t="n">
+        <v>364079.48</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>364283.9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>363730.71</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>364129.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>207250.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>207416.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>206911.27</v>
+      </c>
       <c r="E9" t="n">
-        <v>24994.59</v>
+        <v>207393.99</v>
       </c>
       <c r="F9" t="n">
-        <v>24906.4</v>
+        <v>207585.2</v>
       </c>
       <c r="G9" t="n">
-        <v>23357.52</v>
+        <v>207486.81</v>
       </c>
       <c r="H9" t="n">
-        <v>23788.93</v>
+        <v>207430.3</v>
       </c>
       <c r="I9" t="n">
-        <v>60148.88</v>
+        <v>207531.52</v>
       </c>
       <c r="J9" t="n">
-        <v>70287.49000000001</v>
+        <v>207603.78</v>
       </c>
       <c r="K9" t="n">
-        <v>134367.7</v>
+        <v>207376.16</v>
       </c>
       <c r="L9" t="n">
-        <v>178044.25</v>
+        <v>207243.18</v>
       </c>
       <c r="M9" t="n">
-        <v>302855.9</v>
+        <v>207273.21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>207714.31</v>
+      </c>
+      <c r="O9" t="n">
+        <v>207306.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>207876.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>207231.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>207863.23</v>
+      </c>
+      <c r="S9" t="n">
+        <v>207431.03</v>
+      </c>
+      <c r="T9" t="n">
+        <v>207330.36</v>
+      </c>
+      <c r="U9" t="n">
+        <v>207715.17</v>
+      </c>
+      <c r="V9" t="n">
+        <v>207453.61</v>
+      </c>
+      <c r="W9" t="n">
+        <v>207793.31</v>
+      </c>
+      <c r="X9" t="n">
+        <v>207449.35</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>207727.81</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>207288.26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>207172.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56122.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55674.74</v>
+      </c>
       <c r="D10" t="n">
-        <v>133575.31</v>
+        <v>56337.89</v>
       </c>
       <c r="E10" t="n">
-        <v>207286.39</v>
+        <v>55594.94</v>
       </c>
       <c r="F10" t="n">
-        <v>207428.41</v>
+        <v>56013.55</v>
       </c>
       <c r="G10" t="n">
-        <v>207671.92</v>
+        <v>56561.3</v>
       </c>
       <c r="H10" t="n">
-        <v>207672.14</v>
+        <v>56501.44</v>
       </c>
       <c r="I10" t="n">
-        <v>207294.55</v>
+        <v>56235.05</v>
       </c>
       <c r="J10" t="n">
-        <v>207431.14</v>
+        <v>56555.28</v>
       </c>
       <c r="K10" t="n">
-        <v>207667.78</v>
+        <v>56135.71</v>
       </c>
       <c r="L10" t="n">
-        <v>207819.9</v>
+        <v>56362.44</v>
       </c>
       <c r="M10" t="n">
-        <v>207250.68</v>
+        <v>55619.21</v>
+      </c>
+      <c r="N10" t="n">
+        <v>56037.49</v>
+      </c>
+      <c r="O10" t="n">
+        <v>56198.41</v>
+      </c>
+      <c r="P10" t="n">
+        <v>55749.99</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>55430.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>55675.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>55711.15</v>
+      </c>
+      <c r="T10" t="n">
+        <v>56550.49</v>
+      </c>
+      <c r="U10" t="n">
+        <v>56516.35</v>
+      </c>
+      <c r="V10" t="n">
+        <v>56106.05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>56595.35</v>
+      </c>
+      <c r="X10" t="n">
+        <v>56605.72</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>56604.52</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>55946.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>56341.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20281.88</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>52586.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52357.61</v>
+      </c>
       <c r="D11" t="n">
-        <v>19830.23</v>
+        <v>52581.23</v>
       </c>
       <c r="E11" t="n">
-        <v>20469.21</v>
+        <v>52314.38</v>
       </c>
       <c r="F11" t="n">
-        <v>20528.53</v>
+        <v>52755.26</v>
       </c>
       <c r="G11" t="n">
-        <v>20401.44</v>
+        <v>51919.81</v>
       </c>
       <c r="H11" t="n">
-        <v>19892.37</v>
+        <v>52594.72</v>
       </c>
       <c r="I11" t="n">
-        <v>28607.05</v>
+        <v>52149.45</v>
       </c>
       <c r="J11" t="n">
-        <v>39880.59</v>
+        <v>51831.35</v>
       </c>
       <c r="K11" t="n">
-        <v>55809.54</v>
+        <v>51918.46</v>
       </c>
       <c r="L11" t="n">
-        <v>56394.16</v>
+        <v>52830.31</v>
       </c>
       <c r="M11" t="n">
-        <v>56122.31</v>
+        <v>52432.34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>51893.13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>52973.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>52833.43</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>52225.27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>52767.31</v>
+      </c>
+      <c r="S11" t="n">
+        <v>52118.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>51802.89</v>
+      </c>
+      <c r="U11" t="n">
+        <v>51720.48</v>
+      </c>
+      <c r="V11" t="n">
+        <v>52597.23</v>
+      </c>
+      <c r="W11" t="n">
+        <v>52597.14</v>
+      </c>
+      <c r="X11" t="n">
+        <v>52603.28</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>51866.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>52640.27</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>52440.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22444.09</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>71540.17999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70444.64</v>
+      </c>
       <c r="D12" t="n">
-        <v>22261.34</v>
+        <v>71444.05</v>
       </c>
       <c r="E12" t="n">
-        <v>22172.07</v>
+        <v>70758.98</v>
       </c>
       <c r="F12" t="n">
-        <v>22433.96</v>
+        <v>70649.59</v>
       </c>
       <c r="G12" t="n">
-        <v>22485.99</v>
+        <v>72303.57000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>22686.52</v>
+        <v>73711.46000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>29685.4</v>
+        <v>76720.45</v>
       </c>
       <c r="J12" t="n">
-        <v>40007.31</v>
+        <v>78801.87</v>
       </c>
       <c r="K12" t="n">
-        <v>51927.73</v>
+        <v>77502.75</v>
       </c>
       <c r="L12" t="n">
-        <v>52493.2</v>
+        <v>78369.84</v>
       </c>
       <c r="M12" t="n">
-        <v>52586.05</v>
+        <v>87552.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>88364.35000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>87832.16</v>
+      </c>
+      <c r="P12" t="n">
+        <v>88255.36</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>91697.89999999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>91219.24000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>92253.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>90771.83</v>
+      </c>
+      <c r="U12" t="n">
+        <v>91584.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>90762.57000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>91849.38</v>
+      </c>
+      <c r="X12" t="n">
+        <v>91405.12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>91442.47</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>90003.91</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>90369.71000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71634.56</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>91328.47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>86760.22</v>
+      </c>
       <c r="D13" t="n">
-        <v>71558.24000000001</v>
+        <v>86540.53999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>70442.3</v>
+        <v>86864.94</v>
       </c>
       <c r="F13" t="n">
-        <v>71064.99000000001</v>
+        <v>86829.94</v>
       </c>
       <c r="G13" t="n">
-        <v>71133.89999999999</v>
+        <v>84549.25</v>
       </c>
       <c r="H13" t="n">
-        <v>70709.33</v>
+        <v>84573.63</v>
       </c>
       <c r="I13" t="n">
-        <v>70654.58</v>
+        <v>90551.49000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>71511.89999999999</v>
+        <v>90109.17</v>
       </c>
       <c r="K13" t="n">
-        <v>70255.3</v>
+        <v>90229.78</v>
       </c>
       <c r="L13" t="n">
-        <v>70589.12</v>
+        <v>89721.36</v>
       </c>
       <c r="M13" t="n">
-        <v>71540.17999999999</v>
+        <v>90219.19</v>
+      </c>
+      <c r="N13" t="n">
+        <v>90221.24000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>90036.39999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>90017.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>91740.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>90839.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>91077.48</v>
+      </c>
+      <c r="T13" t="n">
+        <v>90969.56</v>
+      </c>
+      <c r="U13" t="n">
+        <v>91535.39</v>
+      </c>
+      <c r="V13" t="n">
+        <v>90499.35000000001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>92436.84</v>
+      </c>
+      <c r="X13" t="n">
+        <v>91993.61</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>92709.24000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>92245.85000000001</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>93043.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91072.45</v>
+        <v>133.63</v>
       </c>
       <c r="C14" t="n">
-        <v>90675.48</v>
+        <v>143.55</v>
       </c>
       <c r="D14" t="n">
-        <v>91272.37</v>
+        <v>148.87</v>
       </c>
       <c r="E14" t="n">
-        <v>90535.71000000001</v>
+        <v>159.37</v>
       </c>
       <c r="F14" t="n">
-        <v>91468.96000000001</v>
+        <v>169.49</v>
       </c>
       <c r="G14" t="n">
-        <v>90658.50999999999</v>
+        <v>170.28</v>
       </c>
       <c r="H14" t="n">
-        <v>90732.69</v>
+        <v>166.14</v>
       </c>
       <c r="I14" t="n">
-        <v>90688.5</v>
+        <v>174.32</v>
       </c>
       <c r="J14" t="n">
-        <v>91326.47</v>
+        <v>167.38</v>
       </c>
       <c r="K14" t="n">
-        <v>91301.89</v>
+        <v>170.91</v>
       </c>
       <c r="L14" t="n">
-        <v>90688.66</v>
+        <v>167.13</v>
       </c>
       <c r="M14" t="n">
-        <v>91328.47</v>
+        <v>170.8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>193.21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>208.73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>215.86</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>220.47</v>
+      </c>
+      <c r="R14" t="n">
+        <v>223.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>222.78</v>
+      </c>
+      <c r="T14" t="n">
+        <v>197.74</v>
+      </c>
+      <c r="U14" t="n">
+        <v>222.68</v>
+      </c>
+      <c r="V14" t="n">
+        <v>227.46</v>
+      </c>
+      <c r="W14" t="n">
+        <v>220.81</v>
+      </c>
+      <c r="X14" t="n">
+        <v>252.55</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>247.63</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>229.76</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>208.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.45</v>
+        <v>1004.57</v>
       </c>
       <c r="C15" t="n">
-        <v>154.56</v>
+        <v>993.89</v>
       </c>
       <c r="D15" t="n">
-        <v>151.52</v>
+        <v>998.58</v>
       </c>
       <c r="E15" t="n">
-        <v>145.68</v>
+        <v>1020.58</v>
       </c>
       <c r="F15" t="n">
-        <v>135.52</v>
+        <v>994.71</v>
       </c>
       <c r="G15" t="n">
-        <v>195.39</v>
+        <v>992.64</v>
       </c>
       <c r="H15" t="n">
-        <v>157.91</v>
+        <v>1010.6</v>
       </c>
       <c r="I15" t="n">
-        <v>157.74</v>
+        <v>995.54</v>
       </c>
       <c r="J15" t="n">
-        <v>157.61</v>
+        <v>992.4299999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>148.38</v>
+        <v>1018.62</v>
       </c>
       <c r="L15" t="n">
-        <v>132.65</v>
+        <v>1023</v>
       </c>
       <c r="M15" t="n">
-        <v>133.63</v>
+        <v>998.6799999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>974.92</v>
+      </c>
+      <c r="O15" t="n">
+        <v>982.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1022.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1015.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1028.55</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1021.54</v>
+      </c>
+      <c r="T15" t="n">
+        <v>992.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1025.87</v>
+      </c>
+      <c r="V15" t="n">
+        <v>992.72</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1001.39</v>
+      </c>
+      <c r="X15" t="n">
+        <v>993.5700000000001</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>978.3200000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1020.83</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>999.1799999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.85</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>988.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1015.86</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1006.91</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>982.76</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1008.35</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>987.25</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>985.87</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>989.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>993.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>995.04</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1004.57</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8200.209999999999</v>
+        <v>57606.75</v>
       </c>
       <c r="C17" t="n">
-        <v>7943.86</v>
+        <v>57623.46</v>
       </c>
       <c r="D17" t="n">
-        <v>8279.4</v>
+        <v>57634.73</v>
       </c>
       <c r="E17" t="n">
-        <v>8194.01</v>
+        <v>57793.61</v>
       </c>
       <c r="F17" t="n">
-        <v>8018.89</v>
+        <v>58381.62</v>
       </c>
       <c r="G17" t="n">
-        <v>8011.96</v>
+        <v>57704.77</v>
       </c>
       <c r="H17" t="n">
-        <v>8152</v>
+        <v>57745.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2885.84</v>
+        <v>57809.76</v>
       </c>
       <c r="J17" t="n">
-        <v>3298.26</v>
+        <v>58224.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3039.35</v>
+        <v>58362.44</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>58022.71</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>58289.61</v>
+      </c>
+      <c r="N17" t="n">
+        <v>57615.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>57438.45</v>
+      </c>
+      <c r="P17" t="n">
+        <v>58168.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>58118.27</v>
+      </c>
+      <c r="R17" t="n">
+        <v>57889.81</v>
+      </c>
+      <c r="S17" t="n">
+        <v>57665.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>58428.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>58391.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>57666.28</v>
+      </c>
+      <c r="W17" t="n">
+        <v>58341.11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>57930.46</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>57817.04</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>57759.33</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>57850</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74332.42999999999</v>
+        <v>9252.889999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>74052</v>
+        <v>9285.780000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>69718.81</v>
+        <v>9144.549999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>69204.60000000001</v>
+        <v>9269.629999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>69538.27</v>
+        <v>9234.540000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>64631.61</v>
+        <v>9311.93</v>
       </c>
       <c r="H18" t="n">
-        <v>64078.38</v>
+        <v>9206.32</v>
       </c>
       <c r="I18" t="n">
-        <v>64440.86</v>
+        <v>9156.35</v>
       </c>
       <c r="J18" t="n">
-        <v>64722.97</v>
+        <v>9309.690000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>64598.77</v>
+        <v>9145.110000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>58086.98</v>
+        <v>9279.809999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>57606.75</v>
+        <v>9197.639999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9174</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9220.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9278.26</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9211.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>9273.219999999999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9306.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9211.879999999999</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9165.02</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9338.33</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9233.43</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9316.040000000001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9177.85</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9198.790000000001</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9201.969999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3625.45</v>
+        <v>19958.99</v>
       </c>
       <c r="C19" t="n">
-        <v>3676.3</v>
+        <v>19914.61</v>
       </c>
       <c r="D19" t="n">
-        <v>3599.83</v>
+        <v>19866.84</v>
       </c>
       <c r="E19" t="n">
-        <v>3663.75</v>
+        <v>19842.73</v>
       </c>
       <c r="F19" t="n">
-        <v>1932.06</v>
+        <v>19783.77</v>
       </c>
       <c r="G19" t="n">
-        <v>1911.25</v>
+        <v>19898.63</v>
       </c>
       <c r="H19" t="n">
-        <v>1940.48</v>
+        <v>20093.53</v>
       </c>
       <c r="I19" t="n">
-        <v>1948.99</v>
+        <v>19950.87</v>
       </c>
       <c r="J19" t="n">
-        <v>1899.86</v>
+        <v>20219.48</v>
       </c>
       <c r="K19" t="n">
-        <v>1999.91</v>
+        <v>20164.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1985.89</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>19779.63</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20220.38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>20288.99</v>
+      </c>
+      <c r="O19" t="n">
+        <v>20257.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>20076.46</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19766.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>20291</v>
+      </c>
+      <c r="S19" t="n">
+        <v>19843.75</v>
+      </c>
+      <c r="T19" t="n">
+        <v>19855.87</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4310.19</v>
+        <v>17166.13</v>
       </c>
       <c r="C20" t="n">
-        <v>4363.18</v>
+        <v>17190.67</v>
       </c>
       <c r="D20" t="n">
-        <v>4345.96</v>
+        <v>17812.57</v>
       </c>
       <c r="E20" t="n">
-        <v>9142.040000000001</v>
+        <v>17803.99</v>
       </c>
       <c r="F20" t="n">
-        <v>9213.1</v>
+        <v>17169.53</v>
       </c>
       <c r="G20" t="n">
-        <v>9263.23</v>
+        <v>17012.25</v>
       </c>
       <c r="H20" t="n">
-        <v>9182.790000000001</v>
+        <v>17606.39</v>
       </c>
       <c r="I20" t="n">
-        <v>9236.129999999999</v>
+        <v>17589.36</v>
       </c>
       <c r="J20" t="n">
-        <v>9270.280000000001</v>
+        <v>17346.56</v>
       </c>
       <c r="K20" t="n">
-        <v>9241.889999999999</v>
+        <v>17168.75</v>
       </c>
       <c r="L20" t="n">
-        <v>9228.23</v>
+        <v>17628.02</v>
       </c>
       <c r="M20" t="n">
-        <v>9252.889999999999</v>
+        <v>17818.83</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17148.04</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18040</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17977.81</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18077.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17289.86</v>
+      </c>
+      <c r="S20" t="n">
+        <v>17466.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>17970.61</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17851.49</v>
+      </c>
+      <c r="V20" t="n">
+        <v>17097.45</v>
+      </c>
+      <c r="W20" t="n">
+        <v>18017.21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17739.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17385</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17747.08</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17555.91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20052.71</v>
+        <v>11067.17</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>19966.14</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19915.41</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19998.51</v>
-      </c>
-      <c r="G21" t="n">
-        <v>19902.77</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19886.85</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20059.13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20069.41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19907.11</v>
-      </c>
-      <c r="L21" t="n">
-        <v>20121.63</v>
-      </c>
-      <c r="M21" t="n">
-        <v>19958.99</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17731.57</v>
+        <v>66771.89999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>17820.95</v>
+        <v>71265.75</v>
       </c>
       <c r="D22" t="n">
-        <v>17620</v>
+        <v>71489.82000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>17106.48</v>
+        <v>74581.92999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>17747.81</v>
+        <v>74497.2</v>
       </c>
       <c r="G22" t="n">
-        <v>17374.52</v>
+        <v>76657.12</v>
       </c>
       <c r="H22" t="n">
-        <v>17574.62</v>
+        <v>76863.46000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>17546.61</v>
+        <v>77304.58</v>
       </c>
       <c r="J22" t="n">
-        <v>17772.6</v>
+        <v>77942.81</v>
       </c>
       <c r="K22" t="n">
-        <v>17108.17</v>
+        <v>78409.10000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>17471.35</v>
+        <v>78528.87</v>
       </c>
       <c r="M22" t="n">
-        <v>17166.13</v>
+        <v>79213.25999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>79265.05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>80388.08</v>
+      </c>
+      <c r="P22" t="n">
+        <v>82141.37</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>84386.13</v>
+      </c>
+      <c r="R22" t="n">
+        <v>84788.69</v>
+      </c>
+      <c r="S22" t="n">
+        <v>85244.92</v>
+      </c>
+      <c r="T22" t="n">
+        <v>84227.39999999999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>87423.92999999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>88969.47</v>
+      </c>
+      <c r="W22" t="n">
+        <v>91146.66</v>
+      </c>
+      <c r="X22" t="n">
+        <v>91598.42</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>89821.82000000001</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>89470.83</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>89018.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11202.22</v>
+        <v>1335438.02</v>
       </c>
       <c r="C23" t="n">
-        <v>11152.86</v>
+        <v>1354049.25</v>
       </c>
       <c r="D23" t="n">
-        <v>11127.17</v>
+        <v>1358306.63</v>
       </c>
       <c r="E23" t="n">
-        <v>11257.13</v>
+        <v>1342474.7</v>
       </c>
       <c r="F23" t="n">
-        <v>11208.06</v>
+        <v>1340949.57</v>
       </c>
       <c r="G23" t="n">
-        <v>11200</v>
+        <v>1379828.11</v>
       </c>
       <c r="H23" t="n">
-        <v>11108.25</v>
+        <v>1383542.21</v>
       </c>
       <c r="I23" t="n">
-        <v>11185.75</v>
+        <v>1391482.46</v>
       </c>
       <c r="J23" t="n">
-        <v>11336.66</v>
+        <v>1402970.57</v>
       </c>
       <c r="K23" t="n">
-        <v>11159.48</v>
+        <v>1411363.74</v>
       </c>
       <c r="L23" t="n">
-        <v>11249.8</v>
+        <v>1413519.74</v>
       </c>
       <c r="M23" t="n">
-        <v>11067.17</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Supefondo RV</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>231878.3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>231829.55</v>
-      </c>
-      <c r="D24" t="n">
-        <v>232207.78</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>47899.21</v>
-      </c>
-      <c r="C25" t="n">
-        <v>51270.78</v>
-      </c>
-      <c r="D25" t="n">
-        <v>49799.23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43027.18</v>
-      </c>
-      <c r="F25" t="n">
-        <v>49395.29</v>
-      </c>
-      <c r="G25" t="n">
-        <v>49050.42</v>
-      </c>
-      <c r="H25" t="n">
-        <v>49237.03</v>
-      </c>
-      <c r="I25" t="n">
-        <v>51393.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>53013.37</v>
-      </c>
-      <c r="K25" t="n">
-        <v>57057.41</v>
-      </c>
-      <c r="L25" t="n">
-        <v>58677.42</v>
-      </c>
-      <c r="M25" t="n">
-        <v>66771.89999999999</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>957984.29</v>
-      </c>
-      <c r="C26" t="n">
-        <v>820332.47</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1045783.79</v>
-      </c>
-      <c r="E26" t="n">
-        <v>946597.95</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1086696.27</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1079109.16</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1083214.73</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1130665.73</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1166294.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1255263</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1290903.21</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1335438.02</v>
+        <v>1425838.65</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1426770.84</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1446985.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1478544.62</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1518950.29</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1526196.45</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1534408.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1516093.17</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1486206.86</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1512480.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1549493.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1557173.15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1526971.02</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1521004.14</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1513311.84</v>
       </c>
     </row>
   </sheetData>
